--- a/data/DGS_S1_dictionary.xlsx
+++ b/data/DGS_S1_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Do-gooder scale\DGS_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA78357-57F8-4AE2-B2B0-4FA1C1FCE0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D77E66-95AB-4F05-8084-81D0E527CAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="10524" windowHeight="12318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10290" yWindow="0" windowWidth="10524" windowHeight="12318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -753,10 +753,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7 factors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2 factors</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -766,6 +762,10 @@
   </si>
   <si>
     <t>3 factors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factors_7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1111,15 +1111,15 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="26.546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
     <col min="3" max="5" width="13.44921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1165,6 +1165,9 @@
       <c r="C2" t="s">
         <v>203</v>
       </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
       <c r="H2">
         <v>-1</v>
       </c>
@@ -1208,6 +1211,9 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
@@ -1280,6 +1286,9 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
       <c r="H7">
         <v>1</v>
       </c>
@@ -1358,6 +1367,9 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
       <c r="H10">
         <v>-1</v>
       </c>
@@ -1384,6 +1396,9 @@
       <c r="F11">
         <v>3</v>
       </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
       <c r="H11">
         <v>-1</v>
       </c>
@@ -1545,6 +1560,9 @@
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="H18">
         <v>1</v>
       </c>
@@ -1594,6 +1612,9 @@
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -1643,6 +1664,9 @@
       <c r="F22">
         <v>3</v>
       </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
       <c r="H22">
         <v>-1</v>
       </c>
@@ -1666,6 +1690,9 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="H23">
         <v>1</v>
       </c>
@@ -1712,6 +1739,9 @@
       <c r="F25">
         <v>2</v>
       </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
       <c r="H25">
         <v>1</v>
       </c>
@@ -1761,6 +1791,9 @@
       <c r="F27">
         <v>3</v>
       </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
       <c r="H27">
         <v>-1</v>
       </c>
@@ -1784,6 +1817,9 @@
       <c r="E28">
         <v>1</v>
       </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
       <c r="H28">
         <v>1</v>
       </c>
@@ -1810,6 +1846,9 @@
       <c r="F29">
         <v>2</v>
       </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
       <c r="H29">
         <v>1</v>
       </c>
@@ -1833,6 +1872,9 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
       <c r="H30">
         <v>1</v>
       </c>
@@ -1977,6 +2019,9 @@
       <c r="F36">
         <v>2</v>
       </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
       <c r="H36">
         <v>1</v>
       </c>
@@ -2003,6 +2048,9 @@
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
       <c r="H37">
         <v>1</v>
       </c>
@@ -2023,6 +2071,9 @@
       <c r="C38" t="s">
         <v>203</v>
       </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
       <c r="H38">
         <v>1</v>
       </c>
@@ -2046,6 +2097,9 @@
       <c r="F39">
         <v>2</v>
       </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
       <c r="H39">
         <v>-1</v>
       </c>
@@ -2072,6 +2126,9 @@
       <c r="F40">
         <v>2</v>
       </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
       <c r="H40">
         <v>1</v>
       </c>
@@ -2118,6 +2175,9 @@
       <c r="F42">
         <v>3</v>
       </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
       <c r="H42">
         <v>-1</v>
       </c>
@@ -2184,6 +2244,9 @@
       <c r="F45">
         <v>3</v>
       </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
       <c r="H45">
         <v>-1</v>
       </c>
@@ -2204,6 +2267,9 @@
       <c r="C46" t="s">
         <v>203</v>
       </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
       <c r="H46">
         <v>-1</v>
       </c>
@@ -2230,6 +2296,9 @@
       <c r="F47">
         <v>1</v>
       </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
       <c r="H47">
         <v>1</v>
       </c>
@@ -2256,6 +2325,9 @@
       <c r="F48">
         <v>3</v>
       </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
       <c r="H48">
         <v>-1</v>
       </c>
@@ -2311,6 +2383,9 @@
       <c r="F50">
         <v>2</v>
       </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
       <c r="H50">
         <v>1</v>
       </c>
@@ -2357,6 +2432,9 @@
       <c r="E52">
         <v>2</v>
       </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
       <c r="H52">
         <v>-1</v>
       </c>
@@ -2380,6 +2458,9 @@
       <c r="E53">
         <v>1</v>
       </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
       <c r="H53">
         <v>1</v>
       </c>
@@ -2420,6 +2501,9 @@
       <c r="E55">
         <v>2</v>
       </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
       <c r="H55">
         <v>-1</v>
       </c>
@@ -2524,6 +2608,9 @@
       <c r="F59">
         <v>1</v>
       </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
       <c r="H59">
         <v>1</v>
       </c>
@@ -2550,6 +2637,9 @@
       <c r="F60">
         <v>2</v>
       </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
       <c r="H60">
         <v>1</v>
       </c>
@@ -2576,6 +2666,9 @@
       <c r="F61">
         <v>1</v>
       </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
       <c r="H61">
         <v>1</v>
       </c>
@@ -2602,6 +2695,9 @@
       <c r="F62">
         <v>1</v>
       </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
       <c r="H62">
         <v>1</v>
       </c>
@@ -2677,6 +2773,9 @@
       <c r="F65">
         <v>2</v>
       </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
       <c r="H65">
         <v>1</v>
       </c>
@@ -2697,6 +2796,9 @@
       <c r="C66" t="s">
         <v>203</v>
       </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
       <c r="H66">
         <v>-1</v>
       </c>
@@ -2737,6 +2839,9 @@
       <c r="C68" t="s">
         <v>203</v>
       </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
       <c r="H68">
         <v>1</v>
       </c>
@@ -2763,6 +2868,9 @@
       <c r="F69">
         <v>2</v>
       </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
       <c r="H69">
         <v>1</v>
       </c>
@@ -2789,6 +2897,9 @@
       <c r="F70">
         <v>3</v>
       </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
       <c r="H70">
         <v>-1</v>
       </c>
@@ -2809,6 +2920,9 @@
       <c r="C71" t="s">
         <v>203</v>
       </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
       <c r="H71">
         <v>-1</v>
       </c>
@@ -2832,6 +2946,9 @@
       <c r="F72">
         <v>2</v>
       </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
       <c r="H72">
         <v>-1</v>
       </c>
@@ -2857,6 +2974,9 @@
       </c>
       <c r="F73">
         <v>3</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
       </c>
       <c r="H73">
         <v>-1</v>

--- a/data/DGS_S1_dictionary.xlsx
+++ b/data/DGS_S1_dictionary.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Do-gooder scale\DGS_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D77E66-95AB-4F05-8084-81D0E527CAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F29F2-EC0B-4EDF-943C-5AF8969CA724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="0" windowWidth="10524" windowHeight="12318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66135" yWindow="1830" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1111,15 +1114,15 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.59765625" style="2" customWidth="1"/>
     <col min="3" max="5" width="13.44921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1270,7 +1273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="42.3">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="42.3">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="56.4">
+    <row r="45" spans="1:10" ht="28.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="42.3">
+    <row r="48" spans="1:10" ht="28.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="42.3">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="42.3">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="42.3">
+    <row r="63" spans="1:10" ht="28.2">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="56.4">
+    <row r="69" spans="1:10" ht="28.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="42.3">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="56.4">
+    <row r="72" spans="1:10" ht="28.2">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="42.3">
+    <row r="76" spans="1:10" ht="28.2">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -3384,6 +3387,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/DGS_S1_dictionary.xlsx
+++ b/data/DGS_S1_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Do-gooder scale\DGS_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B01AD8-3DF8-43D7-912F-7164C4C32C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D6986-BBB5-48CC-918C-FA7876F133A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34450" yWindow="5770" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,10 +760,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Subscale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M7_concise</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -777,6 +773,10 @@
   </si>
   <si>
     <t>M6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscale</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1124,7 @@
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="103" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -1151,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -1195,9 +1195,6 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
@@ -1404,9 +1401,6 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
         <v>1</v>
       </c>
@@ -1663,9 +1657,6 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16">
         <v>1</v>
       </c>
@@ -1989,9 +1980,6 @@
       <c r="D26" t="s">
         <v>203</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26">
         <v>-1</v>
       </c>
@@ -2091,9 +2079,6 @@
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29">
         <v>-1</v>
       </c>
@@ -2263,9 +2248,6 @@
       <c r="H34">
         <v>5</v>
       </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
       <c r="J34">
         <v>1</v>
       </c>
@@ -2438,9 +2420,6 @@
       <c r="H39">
         <v>7</v>
       </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
       <c r="J39">
         <v>-1</v>
       </c>
@@ -2473,9 +2452,6 @@
       <c r="H40">
         <v>7</v>
       </c>
-      <c r="I40">
-        <v>4</v>
-      </c>
       <c r="J40">
         <v>-1</v>
       </c>
@@ -2604,9 +2580,6 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
       <c r="J44">
         <v>1</v>
       </c>
@@ -2633,9 +2606,6 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>4</v>
-      </c>
       <c r="J45">
         <v>1</v>
       </c>
@@ -2700,9 +2670,6 @@
       <c r="H47">
         <v>4</v>
       </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
       <c r="J47">
         <v>-1</v>
       </c>
@@ -2928,9 +2895,6 @@
         <v>6</v>
       </c>
       <c r="H54">
-        <v>6</v>
-      </c>
-      <c r="I54">
         <v>6</v>
       </c>
       <c r="J54">
